--- a/Mathematical Model/Scarcity Model/parameters_w_50/ alpha/NonEmpty_equal_alpha_firstrun.xlsx
+++ b/Mathematical Model/Scarcity Model/parameters_w_50/ alpha/NonEmpty_equal_alpha_firstrun.xlsx
@@ -452,25 +452,25 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.5490196078431373</v>
+        <v>0.4545454545454545</v>
       </c>
       <c r="C3">
-        <v>0.5021739130434782</v>
+        <v>0.5010893246187363</v>
       </c>
       <c r="D3">
-        <v>0.45703125</v>
+        <v>0.4765957446808511</v>
       </c>
       <c r="E3">
-        <v>0.4871794871794872</v>
+        <v>0.5085106382978724</v>
       </c>
       <c r="F3">
-        <v>0.5435684647302904</v>
+        <v>0.5363984674329502</v>
       </c>
       <c r="G3">
-        <v>0.5031315240083507</v>
+        <v>0.5</v>
       </c>
       <c r="H3">
-        <v>0.506</v>
+        <v>0.504</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -478,25 +478,25 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.4605263157894737</v>
+        <v>0.4303797468354431</v>
       </c>
       <c r="C4">
-        <v>0.5095948827292111</v>
+        <v>0.511727078891258</v>
       </c>
       <c r="D4">
-        <v>0.5117647058823529</v>
+        <v>0.4266666666666667</v>
       </c>
       <c r="E4">
-        <v>0.5058997050147492</v>
+        <v>0.5100574712643678</v>
       </c>
       <c r="F4">
-        <v>0.5362318840579711</v>
+        <v>0.4836601307189543</v>
       </c>
       <c r="G4">
-        <v>0.4908579465541491</v>
+        <v>0.4870317002881844</v>
       </c>
       <c r="H4">
-        <v>0.496</v>
+        <v>0.498</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -504,25 +504,25 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.5185185185185185</v>
+        <v>0.4705882352941176</v>
       </c>
       <c r="C5">
-        <v>0.511340206185567</v>
+        <v>0.5288065843621399</v>
       </c>
       <c r="D5">
-        <v>0.4916666666666666</v>
+        <v>0.392</v>
       </c>
       <c r="E5">
-        <v>0.4953145917001339</v>
+        <v>0.5182767624020888</v>
       </c>
       <c r="F5">
-        <v>0.574468085106383</v>
+        <v>0.4380952380952381</v>
       </c>
       <c r="G5">
-        <v>0.5025188916876574</v>
+        <v>0.4961636828644501</v>
       </c>
       <c r="H5">
-        <v>0.5</v>
+        <v>0.49</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -530,25 +530,25 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.5252525252525253</v>
+        <v>0.4673913043478261</v>
       </c>
       <c r="C6">
-        <v>0.5</v>
+        <v>0.5256166982922201</v>
       </c>
       <c r="D6">
-        <v>0.5391304347826087</v>
+        <v>0.3846153846153846</v>
       </c>
       <c r="E6">
-        <v>0.4961538461538462</v>
+        <v>0.510178117048346</v>
       </c>
       <c r="F6">
-        <v>0.4941176470588236</v>
+        <v>0.4090909090909091</v>
       </c>
       <c r="G6">
-        <v>0.5085365853658537</v>
+        <v>0.5061274509803921</v>
       </c>
       <c r="H6">
-        <v>0.492</v>
+        <v>0.498</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -556,25 +556,25 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.4811320754716981</v>
+        <v>0.5176470588235295</v>
       </c>
       <c r="C7">
-        <v>0.49644128113879</v>
+        <v>0.515625</v>
       </c>
       <c r="D7">
-        <v>0.5701754385964912</v>
+        <v>0.4579439252336449</v>
       </c>
       <c r="E7">
-        <v>0.4930467762326169</v>
+        <v>0.5012468827930174</v>
       </c>
       <c r="F7">
-        <v>0.5058823529411764</v>
+        <v>0.5670103092783505</v>
       </c>
       <c r="G7">
-        <v>0.5126353790613718</v>
+        <v>0.5096852300242131</v>
       </c>
       <c r="H7">
-        <v>0.478</v>
+        <v>0.496</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -582,25 +582,25 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.5233644859813084</v>
+        <v>0.4375</v>
       </c>
       <c r="C8">
-        <v>0.5090016366612111</v>
+        <v>0.5055292259083728</v>
       </c>
       <c r="D8">
-        <v>0.5739130434782609</v>
+        <v>0.5212765957446809</v>
       </c>
       <c r="E8">
-        <v>0.4949748743718593</v>
+        <v>0.4875621890547264</v>
       </c>
       <c r="F8">
-        <v>0.5494505494505495</v>
+        <v>0.5913978494623656</v>
       </c>
       <c r="G8">
-        <v>0.5047961630695443</v>
+        <v>0.4993894993894994</v>
       </c>
       <c r="H8">
-        <v>0.498</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -608,25 +608,25 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.5526315789473685</v>
+        <v>0.4862385321100918</v>
       </c>
       <c r="C9">
-        <v>0.5044910179640718</v>
+        <v>0.5171385991058122</v>
       </c>
       <c r="D9">
-        <v>0.5434782608695652</v>
+        <v>0.5408163265306123</v>
       </c>
       <c r="E9">
-        <v>0.4950124688279302</v>
+        <v>0.4858199753390876</v>
       </c>
       <c r="F9">
-        <v>0.4597701149425287</v>
+        <v>0.5632183908045977</v>
       </c>
       <c r="G9">
-        <v>0.5030084235860409</v>
+        <v>0.4902200488997555</v>
       </c>
       <c r="H9">
-        <v>0.508</v>
+        <v>0.51</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -634,25 +634,25 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.5663716814159292</v>
+        <v>0.53125</v>
       </c>
       <c r="C10">
-        <v>0.4964336661911555</v>
+        <v>0.5155807365439093</v>
       </c>
       <c r="D10">
-        <v>0.5056179775280899</v>
+        <v>0.5510204081632653</v>
       </c>
       <c r="E10">
-        <v>0.4981504315659679</v>
+        <v>0.484472049689441</v>
       </c>
       <c r="F10">
-        <v>0.4868421052631579</v>
+        <v>0.5806451612903226</v>
       </c>
       <c r="G10">
-        <v>0.5085365853658537</v>
+        <v>0.4963592233009709</v>
       </c>
       <c r="H10">
-        <v>0.492</v>
+        <v>0.502</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -660,25 +660,25 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>0.5188679245283019</v>
+        <v>0.4680851063829787</v>
       </c>
       <c r="C11">
-        <v>0.4966532797858099</v>
+        <v>0.5066137566137566</v>
       </c>
       <c r="D11">
-        <v>0.5148514851485149</v>
+        <v>0.4545454545454545</v>
       </c>
       <c r="E11">
-        <v>0.5</v>
+        <v>0.4785894206549118</v>
       </c>
       <c r="F11">
-        <v>0.4680851063829787</v>
+        <v>0.5340909090909091</v>
       </c>
       <c r="G11">
-        <v>0.5067155067155067</v>
+        <v>0.4944099378881988</v>
       </c>
       <c r="H11">
-        <v>0.49</v>
+        <v>0.492</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -686,25 +686,25 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>0.5321100917431193</v>
+        <v>0.4622641509433962</v>
       </c>
       <c r="C12">
-        <v>0.4993694829760403</v>
+        <v>0.5061274509803921</v>
       </c>
       <c r="D12">
-        <v>0.5</v>
+        <v>0.4473684210526316</v>
       </c>
       <c r="E12">
-        <v>0.5057179161372299</v>
+        <v>0.4887780548628429</v>
       </c>
       <c r="F12">
-        <v>0.4838709677419355</v>
+        <v>0.5894736842105263</v>
       </c>
       <c r="G12">
-        <v>0.52</v>
+        <v>0.498780487804878</v>
       </c>
       <c r="H12">
-        <v>0.462</v>
+        <v>0.514</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -712,25 +712,25 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>0.5130434782608696</v>
+        <v>0.53</v>
       </c>
       <c r="C13">
-        <v>0.4970131421744325</v>
+        <v>0.4970484061393152</v>
       </c>
       <c r="D13">
-        <v>0.4957264957264957</v>
+        <v>0.55</v>
       </c>
       <c r="E13">
-        <v>0.4948717948717949</v>
+        <v>0.4873737373737373</v>
       </c>
       <c r="F13">
-        <v>0.4770642201834863</v>
+        <v>0.4938271604938271</v>
       </c>
       <c r="G13">
-        <v>0.5148883374689827</v>
+        <v>0.4975429975429975</v>
       </c>
       <c r="H13">
-        <v>0.462</v>
+        <v>0.518</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -738,25 +738,25 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>0.5043478260869565</v>
+        <v>0.52</v>
       </c>
       <c r="C14">
-        <v>0.4994272623138603</v>
+        <v>0.4955357142857143</v>
       </c>
       <c r="D14">
-        <v>0.4916666666666666</v>
+        <v>0.5555555555555556</v>
       </c>
       <c r="E14">
-        <v>0.4878048780487805</v>
+        <v>0.4855345911949686</v>
       </c>
       <c r="F14">
-        <v>0.5471698113207547</v>
+        <v>0.6263736263736264</v>
       </c>
       <c r="G14">
-        <v>0.5094102885821832</v>
+        <v>0.5054945054945055</v>
       </c>
       <c r="H14">
-        <v>0.46</v>
+        <v>0.512</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -764,25 +764,25 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>0.5714285714285714</v>
+        <v>0.5882352941176471</v>
       </c>
       <c r="C15">
-        <v>0.4945770065075922</v>
+        <v>0.4989384288747346</v>
       </c>
       <c r="D15">
-        <v>0.5043478260869565</v>
+        <v>0.4285714285714285</v>
       </c>
       <c r="E15">
-        <v>0.4955070603337612</v>
+        <v>0.5006257822277848</v>
       </c>
       <c r="F15">
-        <v>0.6363636363636364</v>
+        <v>0.5274725274725275</v>
       </c>
       <c r="G15">
-        <v>0.5112781954887218</v>
+        <v>0.4951100244498777</v>
       </c>
       <c r="H15">
-        <v>0.454</v>
+        <v>0.512</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -790,25 +790,25 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>0.5431034482758621</v>
+        <v>0.51</v>
       </c>
       <c r="C16">
-        <v>0.4825819672131147</v>
+        <v>0.4914054600606673</v>
       </c>
       <c r="D16">
-        <v>0.5714285714285714</v>
+        <v>0.4215686274509804</v>
       </c>
       <c r="E16">
-        <v>0.4936708860759494</v>
+        <v>0.5105853051058531</v>
       </c>
       <c r="F16">
-        <v>0.5</v>
+        <v>0.4382022471910113</v>
       </c>
       <c r="G16">
-        <v>0.5043914680050188</v>
+        <v>0.5024509803921569</v>
       </c>
       <c r="H16">
-        <v>0.48</v>
+        <v>0.502</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -816,25 +816,25 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>0.5137614678899083</v>
+        <v>0.5</v>
       </c>
       <c r="C17">
-        <v>0.4911591355599214</v>
+        <v>0.5019193857965452</v>
       </c>
       <c r="D17">
-        <v>0.5904761904761905</v>
+        <v>0.4835164835164835</v>
       </c>
       <c r="E17">
-        <v>0.4867591424968474</v>
+        <v>0.5055900621118012</v>
       </c>
       <c r="F17">
-        <v>0.4903846153846154</v>
+        <v>0.5</v>
       </c>
       <c r="G17">
-        <v>0.5125</v>
+        <v>0.4963414634146341</v>
       </c>
       <c r="H17">
-        <v>0.506</v>
+        <v>0.524</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -842,25 +842,25 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>0.5339805825242718</v>
+        <v>0.5</v>
       </c>
       <c r="C18">
-        <v>0.4920782851817335</v>
+        <v>0.5027624309392266</v>
       </c>
       <c r="D18">
-        <v>0.4903846153846154</v>
+        <v>0.4090909090909091</v>
       </c>
       <c r="E18">
-        <v>0.48375</v>
+        <v>0.5012345679012346</v>
       </c>
       <c r="F18">
-        <v>0.53125</v>
+        <v>0.5833333333333334</v>
       </c>
       <c r="G18">
-        <v>0.5123762376237624</v>
+        <v>0.4883148831488315</v>
       </c>
       <c r="H18">
-        <v>0.502</v>
+        <v>0.51</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -868,25 +868,25 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>0.5192307692307693</v>
+        <v>0.4653465346534654</v>
       </c>
       <c r="C19">
-        <v>0.4929203539823009</v>
+        <v>0.5008741258741258</v>
       </c>
       <c r="D19">
-        <v>0.53</v>
+        <v>0.495049504950495</v>
       </c>
       <c r="E19">
-        <v>0.4950124688279302</v>
+        <v>0.5067319461444308</v>
       </c>
       <c r="F19">
-        <v>0.5631067961165048</v>
+        <v>0.5094339622641509</v>
       </c>
       <c r="G19">
-        <v>0.5214723926380368</v>
+        <v>0.4870848708487085</v>
       </c>
       <c r="H19">
-        <v>0.49</v>
+        <v>0.496</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -894,25 +894,25 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>0.5045871559633027</v>
+        <v>0.4495412844036697</v>
       </c>
       <c r="C20">
-        <v>0.4897959183673469</v>
+        <v>0.5084175084175084</v>
       </c>
       <c r="D20">
-        <v>0.4893617021276596</v>
+        <v>0.4736842105263158</v>
       </c>
       <c r="E20">
-        <v>0.4969097651421508</v>
+        <v>0.5</v>
       </c>
       <c r="F20">
-        <v>0.5142857142857142</v>
+        <v>0.4807692307692308</v>
       </c>
       <c r="G20">
-        <v>0.5216852540272615</v>
+        <v>0.5</v>
       </c>
       <c r="H20">
-        <v>0.49</v>
+        <v>0.488</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -920,22 +920,22 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>0.49</v>
+        <v>0.4234234234234234</v>
       </c>
       <c r="C21">
-        <v>0.495458298926507</v>
+        <v>0.5061425061425061</v>
       </c>
       <c r="D21">
-        <v>0.5697674418604651</v>
+        <v>0.4555555555555555</v>
       </c>
       <c r="E21">
-        <v>0.50186799501868</v>
+        <v>0.5018633540372671</v>
       </c>
       <c r="F21">
-        <v>0.4623655913978494</v>
+        <v>0.5148514851485149</v>
       </c>
       <c r="G21">
-        <v>0.5226700251889169</v>
+        <v>0.5087281795511222</v>
       </c>
       <c r="H21">
         <v>0.488</v>
@@ -946,25 +946,25 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>0.4747474747474748</v>
+        <v>0.4150943396226415</v>
       </c>
       <c r="C22">
-        <v>0.4937205651491366</v>
+        <v>0.5094488188976378</v>
       </c>
       <c r="D22">
-        <v>0.5</v>
+        <v>0.5148514851485149</v>
       </c>
       <c r="E22">
-        <v>0.4957055214723927</v>
+        <v>0.4981458590852905</v>
       </c>
       <c r="F22">
-        <v>0.4476190476190476</v>
+        <v>0.4711538461538461</v>
       </c>
       <c r="G22">
-        <v>0.5196560196560197</v>
+        <v>0.5086848635235732</v>
       </c>
       <c r="H22">
-        <v>0.492</v>
+        <v>0.484</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -972,25 +972,25 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>0.5268817204301075</v>
+        <v>0.4952380952380953</v>
       </c>
       <c r="C23">
-        <v>0.4980959634424981</v>
+        <v>0.5049429657794677</v>
       </c>
       <c r="D23">
-        <v>0.5869565217391305</v>
+        <v>0.4571428571428571</v>
       </c>
       <c r="E23">
-        <v>0.4918238993710692</v>
+        <v>0.5031367628607277</v>
       </c>
       <c r="F23">
-        <v>0.4606741573033708</v>
+        <v>0.4673913043478261</v>
       </c>
       <c r="G23">
-        <v>0.5205479452054794</v>
+        <v>0.515</v>
       </c>
       <c r="H23">
-        <v>0.504</v>
+        <v>0.482</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -998,25 +998,25 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>0.5517241379310345</v>
+        <v>0.4553571428571428</v>
       </c>
       <c r="C24">
-        <v>0.4967177242888403</v>
+        <v>0.4974358974358974</v>
       </c>
       <c r="D24">
-        <v>0.4761904761904762</v>
+        <v>0.5</v>
       </c>
       <c r="E24">
-        <v>0.4832298136645963</v>
+        <v>0.5145018915510718</v>
       </c>
       <c r="F24">
-        <v>0.5327102803738317</v>
+        <v>0.4380952380952381</v>
       </c>
       <c r="G24">
-        <v>0.5159313725490197</v>
+        <v>0.515451174289246</v>
       </c>
       <c r="H24">
-        <v>0.518</v>
+        <v>0.486</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -1024,25 +1024,25 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>0.5882352941176471</v>
+        <v>0.4712643678160919</v>
       </c>
       <c r="C25">
-        <v>0.4946466809421842</v>
+        <v>0.4978571428571428</v>
       </c>
       <c r="D25">
-        <v>0.4536082474226804</v>
+        <v>0.51</v>
       </c>
       <c r="E25">
-        <v>0.4895448954489545</v>
+        <v>0.5119196988707654</v>
       </c>
       <c r="F25">
-        <v>0.52</v>
+        <v>0.4579439252336449</v>
       </c>
       <c r="G25">
-        <v>0.5091799265605875</v>
+        <v>0.5105328376703842</v>
       </c>
       <c r="H25">
-        <v>0.528</v>
+        <v>0.496</v>
       </c>
     </row>
     <row r="26" spans="1:8">
@@ -1050,25 +1050,25 @@
         <v>24</v>
       </c>
       <c r="B26">
-        <v>0.5473684210526316</v>
+        <v>0.3978494623655914</v>
       </c>
       <c r="C26">
-        <v>0.4911080711354309</v>
+        <v>0.4969532836831415</v>
       </c>
       <c r="D26">
-        <v>0.4204545454545455</v>
+        <v>0.5242718446601942</v>
       </c>
       <c r="E26">
-        <v>0.4884004884004884</v>
+        <v>0.5087064676616916</v>
       </c>
       <c r="F26">
-        <v>0.5357142857142857</v>
+        <v>0.514018691588785</v>
       </c>
       <c r="G26">
-        <v>0.5109756097560976</v>
+        <v>0.506832298136646</v>
       </c>
       <c r="H26">
-        <v>0.522</v>
+        <v>0.508</v>
       </c>
     </row>
     <row r="27" spans="1:8">
@@ -1076,25 +1076,25 @@
         <v>25</v>
       </c>
       <c r="B27">
-        <v>0.5357142857142857</v>
+        <v>0.4239130434782609</v>
       </c>
       <c r="C27">
-        <v>0.4966931216931217</v>
+        <v>0.4996699669966997</v>
       </c>
       <c r="D27">
-        <v>0.5</v>
+        <v>0.4803921568627451</v>
       </c>
       <c r="E27">
-        <v>0.4883435582822086</v>
+        <v>0.51</v>
       </c>
       <c r="F27">
-        <v>0.5</v>
+        <v>0.5520833333333334</v>
       </c>
       <c r="G27">
-        <v>0.5097087378640777</v>
+        <v>0.5075187969924813</v>
       </c>
       <c r="H27">
-        <v>0.54</v>
+        <v>0.49</v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -1102,25 +1102,25 @@
         <v>26</v>
       </c>
       <c r="B28">
-        <v>0.4597701149425287</v>
+        <v>0.4252873563218391</v>
       </c>
       <c r="C28">
-        <v>0.4958886780518659</v>
+        <v>0.5038709677419355</v>
       </c>
       <c r="D28">
-        <v>0.5</v>
+        <v>0.5816326530612245</v>
       </c>
       <c r="E28">
-        <v>0.4811664641555286</v>
+        <v>0.5159642401021711</v>
       </c>
       <c r="F28">
-        <v>0.5161290322580645</v>
+        <v>0.5588235294117647</v>
       </c>
       <c r="G28">
-        <v>0.5132530120481927</v>
+        <v>0.5107458912768648</v>
       </c>
       <c r="H28">
-        <v>0.532</v>
+        <v>0.504</v>
       </c>
     </row>
     <row r="29" spans="1:8">
@@ -1128,25 +1128,25 @@
         <v>27</v>
       </c>
       <c r="B29">
-        <v>0.45</v>
+        <v>0.4130434782608696</v>
       </c>
       <c r="C29">
-        <v>0.4975278121137207</v>
+        <v>0.5040650406504065</v>
       </c>
       <c r="D29">
-        <v>0.5274725274725275</v>
+        <v>0.4869565217391305</v>
       </c>
       <c r="E29">
-        <v>0.4770755885997522</v>
+        <v>0.5159235668789809</v>
       </c>
       <c r="F29">
-        <v>0.4634146341463415</v>
+        <v>0.512396694214876</v>
       </c>
       <c r="G29">
-        <v>0.5085995085995086</v>
+        <v>0.5057471264367817</v>
       </c>
       <c r="H29">
-        <v>0.534</v>
+        <v>0.504</v>
       </c>
     </row>
     <row r="30" spans="1:8">
@@ -1154,25 +1154,25 @@
         <v>28</v>
       </c>
       <c r="B30">
-        <v>0.4880952380952381</v>
+        <v>0.4479166666666667</v>
       </c>
       <c r="C30">
-        <v>0.4975698663426488</v>
+        <v>0.5021224984839296</v>
       </c>
       <c r="D30">
-        <v>0.5566037735849056</v>
+        <v>0.4862385321100918</v>
       </c>
       <c r="E30">
-        <v>0.476846057571965</v>
+        <v>0.5189393939393939</v>
       </c>
       <c r="F30">
-        <v>0.5434782608695652</v>
+        <v>0.4770642201834863</v>
       </c>
       <c r="G30">
-        <v>0.5154130702836005</v>
+        <v>0.5133079847908745</v>
       </c>
       <c r="H30">
-        <v>0.53</v>
+        <v>0.504</v>
       </c>
     </row>
     <row r="31" spans="1:8">
@@ -1180,25 +1180,25 @@
         <v>29</v>
       </c>
       <c r="B31">
-        <v>0.5212765957446809</v>
+        <v>0.4845360824742268</v>
       </c>
       <c r="C31">
-        <v>0.5008839127872716</v>
+        <v>0.4976303317535545</v>
       </c>
       <c r="D31">
-        <v>0.5491803278688525</v>
+        <v>0.4554455445544555</v>
       </c>
       <c r="E31">
-        <v>0.4820512820512821</v>
+        <v>0.5106117353308365</v>
       </c>
       <c r="F31">
-        <v>0.4951456310679612</v>
+        <v>0.4848484848484849</v>
       </c>
       <c r="G31">
-        <v>0.50625</v>
+        <v>0.5173267326732673</v>
       </c>
       <c r="H31">
-        <v>0.528</v>
+        <v>0.486</v>
       </c>
     </row>
     <row r="32" spans="1:8">
@@ -1206,25 +1206,25 @@
         <v>30</v>
       </c>
       <c r="B32">
-        <v>0.5247524752475248</v>
+        <v>0.4666666666666667</v>
       </c>
       <c r="C32">
-        <v>0.4979919678714859</v>
+        <v>0.4997111496244945</v>
       </c>
       <c r="D32">
-        <v>0.487603305785124</v>
+        <v>0.5096153846153846</v>
       </c>
       <c r="E32">
-        <v>0.4890885750962773</v>
+        <v>0.5169811320754717</v>
       </c>
       <c r="F32">
-        <v>0.4128440366972477</v>
+        <v>0.5242718446601942</v>
       </c>
       <c r="G32">
-        <v>0.51625</v>
+        <v>0.5105853051058531</v>
       </c>
       <c r="H32">
-        <v>0.524</v>
+        <v>0.492</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -1232,25 +1232,25 @@
         <v>31</v>
       </c>
       <c r="B33">
-        <v>0.4948453608247423</v>
+        <v>0.4563106796116505</v>
       </c>
       <c r="C33">
-        <v>0.4988776655443322</v>
+        <v>0.5</v>
       </c>
       <c r="D33">
-        <v>0.5490196078431373</v>
+        <v>0.4747474747474748</v>
       </c>
       <c r="E33">
-        <v>0.4892541087231353</v>
+        <v>0.5132075471698113</v>
       </c>
       <c r="F33">
-        <v>0.3979591836734694</v>
+        <v>0.5102040816326531</v>
       </c>
       <c r="G33">
-        <v>0.5204968944099378</v>
+        <v>0.5094102885821832</v>
       </c>
       <c r="H33">
-        <v>0.514</v>
+        <v>0.496</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -1258,25 +1258,25 @@
         <v>32</v>
       </c>
       <c r="B34">
-        <v>0.4642857142857143</v>
+        <v>0.4528301886792453</v>
       </c>
       <c r="C34">
-        <v>0.5008147745790331</v>
+        <v>0.5038759689922481</v>
       </c>
       <c r="D34">
-        <v>0.5833333333333334</v>
+        <v>0.4606741573033708</v>
       </c>
       <c r="E34">
-        <v>0.4797047970479705</v>
+        <v>0.5150753768844221</v>
       </c>
       <c r="F34">
-        <v>0.46</v>
+        <v>0.5436893203883495</v>
       </c>
       <c r="G34">
-        <v>0.5115712545676004</v>
+        <v>0.5093632958801498</v>
       </c>
       <c r="H34">
-        <v>0.518</v>
+        <v>0.504</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -1284,25 +1284,25 @@
         <v>33</v>
       </c>
       <c r="B35">
-        <v>0.4954128440366973</v>
+        <v>0.4684684684684685</v>
       </c>
       <c r="C35">
-        <v>0.5042826552462527</v>
+        <v>0.5048701298701299</v>
       </c>
       <c r="D35">
-        <v>0.625</v>
+        <v>0.4313725490196079</v>
       </c>
       <c r="E35">
-        <v>0.4705159705159705</v>
+        <v>0.5093399750933998</v>
       </c>
       <c r="F35">
-        <v>0.5164835164835165</v>
+        <v>0.4905660377358491</v>
       </c>
       <c r="G35">
-        <v>0.5067319461444308</v>
+        <v>0.5106382978723404</v>
       </c>
       <c r="H35">
-        <v>0.516</v>
+        <v>0.496</v>
       </c>
     </row>
     <row r="36" spans="1:8">
@@ -1310,25 +1310,25 @@
         <v>34</v>
       </c>
       <c r="B36">
-        <v>0.4778761061946903</v>
+        <v>0.4909090909090909</v>
       </c>
       <c r="C36">
-        <v>0.5028690662493479</v>
+        <v>0.5063829787234042</v>
       </c>
       <c r="D36">
-        <v>0.54</v>
+        <v>0.4848484848484849</v>
       </c>
       <c r="E36">
-        <v>0.4681372549019608</v>
+        <v>0.5037974683544304</v>
       </c>
       <c r="F36">
-        <v>0.5862068965517241</v>
+        <v>0.5106382978723404</v>
       </c>
       <c r="G36">
-        <v>0.5</v>
+        <v>0.506900878293601</v>
       </c>
       <c r="H36">
-        <v>0.528</v>
+        <v>0.514</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -1336,25 +1336,25 @@
         <v>35</v>
       </c>
       <c r="B37">
-        <v>0.5299145299145299</v>
+        <v>0.46</v>
       </c>
       <c r="C37">
-        <v>0.5071428571428571</v>
+        <v>0.5070349140177176</v>
       </c>
       <c r="D37">
-        <v>0.5204081632653061</v>
+        <v>0.4190476190476191</v>
       </c>
       <c r="E37">
-        <v>0.4790123456790124</v>
+        <v>0.4993678887484197</v>
       </c>
       <c r="F37">
-        <v>0.5232558139534884</v>
+        <v>0.5368421052631579</v>
       </c>
       <c r="G37">
-        <v>0.501207729468599</v>
+        <v>0.5024875621890548</v>
       </c>
       <c r="H37">
-        <v>0.522</v>
+        <v>0.506</v>
       </c>
     </row>
     <row r="38" spans="1:8">
@@ -1362,25 +1362,25 @@
         <v>36</v>
       </c>
       <c r="B38">
-        <v>0.5555555555555556</v>
+        <v>0.5377358490566038</v>
       </c>
       <c r="C38">
-        <v>0.5034860557768924</v>
+        <v>0.5073492143943233</v>
       </c>
       <c r="D38">
-        <v>0.4842105263157895</v>
+        <v>0.415929203539823</v>
       </c>
       <c r="E38">
-        <v>0.4809815950920245</v>
+        <v>0.4962216624685138</v>
       </c>
       <c r="F38">
-        <v>0.4574468085106383</v>
+        <v>0.4725274725274725</v>
       </c>
       <c r="G38">
-        <v>0.5090252707581228</v>
+        <v>0.4993849938499385</v>
       </c>
       <c r="H38">
-        <v>0.51</v>
+        <v>0.508</v>
       </c>
     </row>
     <row r="39" spans="1:8">
@@ -1388,25 +1388,25 @@
         <v>37</v>
       </c>
       <c r="B39">
-        <v>0.525</v>
+        <v>0.4830508474576271</v>
       </c>
       <c r="C39">
-        <v>0.4955968688845401</v>
+        <v>0.5024975024975025</v>
       </c>
       <c r="D39">
-        <v>0.5111111111111111</v>
+        <v>0.4056603773584906</v>
       </c>
       <c r="E39">
-        <v>0.478908188585608</v>
+        <v>0.4891165172855313</v>
       </c>
       <c r="F39">
-        <v>0.5058823529411764</v>
+        <v>0.5232558139534884</v>
       </c>
       <c r="G39">
-        <v>0.5177478580171359</v>
+        <v>0.5092478421701603</v>
       </c>
       <c r="H39">
-        <v>0.496</v>
+        <v>0.502</v>
       </c>
     </row>
     <row r="40" spans="1:8">
@@ -1414,25 +1414,25 @@
         <v>38</v>
       </c>
       <c r="B40">
-        <v>0.5233644859813084</v>
+        <v>0.48</v>
       </c>
       <c r="C40">
-        <v>0.498567335243553</v>
+        <v>0.5078740157480315</v>
       </c>
       <c r="D40">
-        <v>0.5769230769230769</v>
+        <v>0.4912280701754386</v>
       </c>
       <c r="E40">
-        <v>0.4736842105263158</v>
+        <v>0.489821882951654</v>
       </c>
       <c r="F40">
-        <v>0.5176470588235295</v>
+        <v>0.5754716981132075</v>
       </c>
       <c r="G40">
-        <v>0.5139056831922612</v>
+        <v>0.5116851168511685</v>
       </c>
       <c r="H40">
-        <v>0.488</v>
+        <v>0.502</v>
       </c>
     </row>
     <row r="41" spans="1:8">
@@ -1440,25 +1440,25 @@
         <v>39</v>
       </c>
       <c r="B41">
-        <v>0.4766355140186916</v>
+        <v>0.5185185185185185</v>
       </c>
       <c r="C41">
-        <v>0.5002337540906966</v>
+        <v>0.5069411201531834</v>
       </c>
       <c r="D41">
-        <v>0.4942528735632184</v>
+        <v>0.4434782608695652</v>
       </c>
       <c r="E41">
-        <v>0.47625</v>
+        <v>0.4808673469387755</v>
       </c>
       <c r="F41">
-        <v>0.5641025641025641</v>
+        <v>0.53</v>
       </c>
       <c r="G41">
-        <v>0.5090470446320868</v>
+        <v>0.509386733416771</v>
       </c>
       <c r="H41">
-        <v>0.496</v>
+        <v>0.512</v>
       </c>
     </row>
     <row r="42" spans="1:8">
@@ -1466,25 +1466,25 @@
         <v>40</v>
       </c>
       <c r="B42">
-        <v>0.456140350877193</v>
+        <v>0.5471698113207547</v>
       </c>
       <c r="C42">
-        <v>0.5018298261665142</v>
+        <v>0.5030588235294118</v>
       </c>
       <c r="D42">
-        <v>0.4392523364485981</v>
+        <v>0.4803921568627451</v>
       </c>
       <c r="E42">
-        <v>0.4882280049566295</v>
+        <v>0.4858974358974359</v>
       </c>
       <c r="F42">
-        <v>0.5411764705882353</v>
+        <v>0.4583333333333333</v>
       </c>
       <c r="G42">
-        <v>0.5096618357487923</v>
+        <v>0.5155666251556662</v>
       </c>
       <c r="H42">
-        <v>0.492</v>
+        <v>0.51</v>
       </c>
     </row>
     <row r="43" spans="1:8">
@@ -1492,25 +1492,25 @@
         <v>41</v>
       </c>
       <c r="B43">
-        <v>0.4857142857142857</v>
+        <v>0.5309734513274337</v>
       </c>
       <c r="C43">
-        <v>0.5020152261531572</v>
+        <v>0.5018382352941176</v>
       </c>
       <c r="D43">
-        <v>0.4454545454545454</v>
+        <v>0.5288461538461539</v>
       </c>
       <c r="E43">
-        <v>0.4900744416873449</v>
+        <v>0.4793491864831039</v>
       </c>
       <c r="F43">
-        <v>0.4886363636363636</v>
+        <v>0.5</v>
       </c>
       <c r="G43">
-        <v>0.5210084033613446</v>
+        <v>0.5147420147420148</v>
       </c>
       <c r="H43">
-        <v>0.482</v>
+        <v>0.528</v>
       </c>
     </row>
     <row r="44" spans="1:8">
@@ -1518,25 +1518,25 @@
         <v>42</v>
       </c>
       <c r="B44">
-        <v>0.5</v>
+        <v>0.4537037037037037</v>
       </c>
       <c r="C44">
-        <v>0.4991220368744513</v>
+        <v>0.5038689121529358</v>
       </c>
       <c r="D44">
-        <v>0.4907407407407408</v>
+        <v>0.5268817204301075</v>
       </c>
       <c r="E44">
-        <v>0.4898989898989899</v>
+        <v>0.4821882951653944</v>
       </c>
       <c r="F44">
-        <v>0.4712643678160919</v>
+        <v>0.5</v>
       </c>
       <c r="G44">
-        <v>0.5213154689403167</v>
+        <v>0.5106117353308365</v>
       </c>
       <c r="H44">
-        <v>0.486</v>
+        <v>0.524</v>
       </c>
     </row>
     <row r="45" spans="1:8">
@@ -1544,25 +1544,25 @@
         <v>43</v>
       </c>
       <c r="B45">
-        <v>0.4952380952380953</v>
+        <v>0.4818181818181818</v>
       </c>
       <c r="C45">
-        <v>0.4987113402061856</v>
+        <v>0.5077881619937694</v>
       </c>
       <c r="D45">
-        <v>0.5</v>
+        <v>0.5272727272727272</v>
       </c>
       <c r="E45">
-        <v>0.4852752880921895</v>
+        <v>0.4867924528301887</v>
       </c>
       <c r="F45">
-        <v>0.5408163265306123</v>
+        <v>0.46</v>
       </c>
       <c r="G45">
-        <v>0.5172413793103449</v>
+        <v>0.511166253101737</v>
       </c>
       <c r="H45">
-        <v>0.502</v>
+        <v>0.514</v>
       </c>
     </row>
     <row r="46" spans="1:8">
@@ -1570,25 +1570,25 @@
         <v>44</v>
       </c>
       <c r="B46">
-        <v>0.5238095238095238</v>
+        <v>0.4905660377358491</v>
       </c>
       <c r="C46">
-        <v>0.5004230118443317</v>
+        <v>0.5054466230936819</v>
       </c>
       <c r="D46">
-        <v>0.4954954954954955</v>
+        <v>0.5257731958762887</v>
       </c>
       <c r="E46">
-        <v>0.4878671775223499</v>
+        <v>0.4849624060150376</v>
       </c>
       <c r="F46">
-        <v>0.5638297872340425</v>
+        <v>0.4408602150537634</v>
       </c>
       <c r="G46">
-        <v>0.5116851168511685</v>
+        <v>0.508641975308642</v>
       </c>
       <c r="H46">
-        <v>0.496</v>
+        <v>0.52</v>
       </c>
     </row>
     <row r="47" spans="1:8">
@@ -1596,25 +1596,25 @@
         <v>45</v>
       </c>
       <c r="B47">
-        <v>0.5588235294117647</v>
+        <v>0.4672897196261682</v>
       </c>
       <c r="C47">
-        <v>0.5012427506213754</v>
+        <v>0.5057422373458103</v>
       </c>
       <c r="D47">
-        <v>0.5217391304347826</v>
+        <v>0.5567010309278351</v>
       </c>
       <c r="E47">
-        <v>0.485</v>
+        <v>0.4866504854368932</v>
       </c>
       <c r="F47">
-        <v>0.5263157894736842</v>
+        <v>0.4157303370786517</v>
       </c>
       <c r="G47">
-        <v>0.5151883353584447</v>
+        <v>0.5042117930204573</v>
       </c>
       <c r="H47">
-        <v>0.484</v>
+        <v>0.528</v>
       </c>
     </row>
     <row r="48" spans="1:8">
@@ -1622,25 +1622,25 @@
         <v>46</v>
       </c>
       <c r="B48">
-        <v>0.6019417475728155</v>
+        <v>0.4722222222222222</v>
       </c>
       <c r="C48">
-        <v>0.4993919740575598</v>
+        <v>0.5062972292191436</v>
       </c>
       <c r="D48">
-        <v>0.4583333333333333</v>
+        <v>0.5111111111111111</v>
       </c>
       <c r="E48">
-        <v>0.4774114774114774</v>
+        <v>0.4845105328376704</v>
       </c>
       <c r="F48">
-        <v>0.5326086956521739</v>
+        <v>0.4666666666666667</v>
       </c>
       <c r="G48">
-        <v>0.5115712545676004</v>
+        <v>0.5006105006105006</v>
       </c>
       <c r="H48">
-        <v>0.502</v>
+        <v>0.534</v>
       </c>
     </row>
     <row r="49" spans="1:8">
@@ -1648,25 +1648,25 @@
         <v>47</v>
       </c>
       <c r="B49">
-        <v>0.5192307692307693</v>
+        <v>0.4615384615384616</v>
       </c>
       <c r="C49">
-        <v>0.498804780876494</v>
+        <v>0.5063550635506355</v>
       </c>
       <c r="D49">
-        <v>0.5346534653465347</v>
+        <v>0.504424778761062</v>
       </c>
       <c r="E49">
-        <v>0.4760147601476015</v>
+        <v>0.4834761321909425</v>
       </c>
       <c r="F49">
-        <v>0.5529411764705883</v>
+        <v>0.4893617021276596</v>
       </c>
       <c r="G49">
-        <v>0.5152625152625152</v>
+        <v>0.4892857142857143</v>
       </c>
       <c r="H49">
-        <v>0.508</v>
+        <v>0.538</v>
       </c>
     </row>
     <row r="50" spans="1:8">
@@ -1674,25 +1674,25 @@
         <v>48</v>
       </c>
       <c r="B50">
-        <v>0.5675675675675675</v>
+        <v>0.5045871559633027</v>
       </c>
       <c r="C50">
-        <v>0.4992169146436962</v>
+        <v>0.5064882400648824</v>
       </c>
       <c r="D50">
-        <v>0.4747474747474748</v>
+        <v>0.5384615384615384</v>
       </c>
       <c r="E50">
-        <v>0.4695652173913044</v>
+        <v>0.478908188585608</v>
       </c>
       <c r="F50">
-        <v>0.5578947368421052</v>
+        <v>0.5443037974683544</v>
       </c>
       <c r="G50">
-        <v>0.5139056831922612</v>
+        <v>0.4903846153846154</v>
       </c>
       <c r="H50">
-        <v>0.508</v>
+        <v>0.532</v>
       </c>
     </row>
     <row r="51" spans="1:8">
@@ -1700,25 +1700,25 @@
         <v>49</v>
       </c>
       <c r="B51">
-        <v>0.512</v>
+        <v>0.4343434343434344</v>
       </c>
       <c r="C51">
-        <v>0.4965089216446858</v>
+        <v>0.5063441712926249</v>
       </c>
       <c r="D51">
-        <v>0.5673076923076923</v>
+        <v>0.5490196078431373</v>
       </c>
       <c r="E51">
-        <v>0.4775</v>
+        <v>0.4767156862745098</v>
       </c>
       <c r="F51">
-        <v>0.5454545454545454</v>
+        <v>0.5581395348837209</v>
       </c>
       <c r="G51">
-        <v>0.5134803921568627</v>
+        <v>0.4849939975990396</v>
       </c>
       <c r="H51">
-        <v>0.522</v>
+        <v>0.536</v>
       </c>
     </row>
     <row r="52" spans="1:8">
@@ -1726,25 +1726,25 @@
         <v>50</v>
       </c>
       <c r="B52">
-        <v>0.4628099173553719</v>
+        <v>0.5192307692307693</v>
       </c>
       <c r="C52">
-        <v>0.4986574606827772</v>
+        <v>0.5101088646967341</v>
       </c>
       <c r="D52">
-        <v>0.5370370370370371</v>
+        <v>0.4367816091954023</v>
       </c>
       <c r="E52">
-        <v>0.4792452830188679</v>
+        <v>0.4782608695652174</v>
       </c>
       <c r="F52">
-        <v>0.514018691588785</v>
+        <v>0.5180722891566265</v>
       </c>
       <c r="G52">
-        <v>0.5129469790382244</v>
+        <v>0.4897218863361548</v>
       </c>
       <c r="H52">
-        <v>0.518</v>
+        <v>0.536</v>
       </c>
     </row>
     <row r="53" spans="1:8">
@@ -1752,25 +1752,25 @@
         <v>51</v>
       </c>
       <c r="B53">
-        <v>0.4035087719298245</v>
+        <v>0.5148514851485149</v>
       </c>
       <c r="C53">
-        <v>0.4983063605570192</v>
+        <v>0.507262996941896</v>
       </c>
       <c r="D53">
-        <v>0.5092592592592593</v>
+        <v>0.4313725490196079</v>
       </c>
       <c r="E53">
-        <v>0.4956304619225967</v>
+        <v>0.4829268292682927</v>
       </c>
       <c r="F53">
-        <v>0.4591836734693878</v>
+        <v>0.5157894736842106</v>
       </c>
       <c r="G53">
-        <v>0.5105067985166872</v>
+        <v>0.4975903614457831</v>
       </c>
       <c r="H53">
-        <v>0.514</v>
+        <v>0.522</v>
       </c>
     </row>
     <row r="54" spans="1:8">
@@ -1778,25 +1778,25 @@
         <v>52</v>
       </c>
       <c r="B54">
-        <v>0.4347826086956522</v>
+        <v>0.5137614678899083</v>
       </c>
       <c r="C54">
-        <v>0.5</v>
+        <v>0.5075757575757576</v>
       </c>
       <c r="D54">
-        <v>0.5619047619047619</v>
+        <v>0.4574468085106383</v>
       </c>
       <c r="E54">
-        <v>0.4981226533166458</v>
+        <v>0.4879594423320659</v>
       </c>
       <c r="F54">
-        <v>0.3777777777777778</v>
+        <v>0.5119047619047619</v>
       </c>
       <c r="G54">
-        <v>0.5147058823529411</v>
+        <v>0.4993742177722152</v>
       </c>
       <c r="H54">
-        <v>0.51</v>
+        <v>0.508</v>
       </c>
     </row>
     <row r="55" spans="1:8">
@@ -1804,22 +1804,22 @@
         <v>53</v>
       </c>
       <c r="B55">
-        <v>0.4591836734693878</v>
+        <v>0.5148514851485149</v>
       </c>
       <c r="C55">
-        <v>0.4994539497633783</v>
+        <v>0.5069262448521153</v>
       </c>
       <c r="D55">
-        <v>0.52</v>
+        <v>0.5046728971962616</v>
       </c>
       <c r="E55">
-        <v>0.4987468671679198</v>
+        <v>0.484197218710493</v>
       </c>
       <c r="F55">
-        <v>0.4942528735632184</v>
+        <v>0.4396551724137931</v>
       </c>
       <c r="G55">
-        <v>0.514041514041514</v>
+        <v>0.4956413449564134</v>
       </c>
       <c r="H55">
         <v>0.516</v>
@@ -1830,25 +1830,25 @@
         <v>54</v>
       </c>
       <c r="B56">
-        <v>0.4579439252336449</v>
+        <v>0.5164835164835165</v>
       </c>
       <c r="C56">
-        <v>0.4973223848625491</v>
+        <v>0.5075562108367121</v>
       </c>
       <c r="D56">
-        <v>0.52</v>
+        <v>0.4903846153846154</v>
       </c>
       <c r="E56">
-        <v>0.4987531172069826</v>
+        <v>0.4777636594663278</v>
       </c>
       <c r="F56">
-        <v>0.5196078431372549</v>
+        <v>0.4857142857142857</v>
       </c>
       <c r="G56">
-        <v>0.5018359853121175</v>
+        <v>0.4936224489795918</v>
       </c>
       <c r="H56">
-        <v>0.508</v>
+        <v>0.518</v>
       </c>
     </row>
     <row r="57" spans="1:8">
@@ -1856,25 +1856,25 @@
         <v>55</v>
       </c>
       <c r="B57">
-        <v>0.4953271028037383</v>
+        <v>0.5053763440860215</v>
       </c>
       <c r="C57">
-        <v>0.4973582247270166</v>
+        <v>0.5077533357374684</v>
       </c>
       <c r="D57">
-        <v>0.5294117647058824</v>
+        <v>0.4351851851851852</v>
       </c>
       <c r="E57">
-        <v>0.5037406483790524</v>
+        <v>0.491183879093199</v>
       </c>
       <c r="F57">
-        <v>0.5445544554455446</v>
+        <v>0.5188679245283019</v>
       </c>
       <c r="G57">
-        <v>0.4937810945273632</v>
+        <v>0.4881398252184769</v>
       </c>
       <c r="H57">
-        <v>0.52</v>
+        <v>0.524</v>
       </c>
     </row>
     <row r="58" spans="1:8">
@@ -1882,25 +1882,25 @@
         <v>56</v>
       </c>
       <c r="B58">
-        <v>0.4715447154471545</v>
+        <v>0.4803921568627451</v>
       </c>
       <c r="C58">
-        <v>0.4951083158630328</v>
+        <v>0.5060455192034139</v>
       </c>
       <c r="D58">
-        <v>0.5</v>
+        <v>0.4803921568627451</v>
       </c>
       <c r="E58">
-        <v>0.5025445292620865</v>
+        <v>0.49625</v>
       </c>
       <c r="F58">
-        <v>0.5</v>
+        <v>0.4545454545454545</v>
       </c>
       <c r="G58">
-        <v>0.4981179422835634</v>
+        <v>0.480840543881335</v>
       </c>
       <c r="H58">
-        <v>0.512</v>
+        <v>0.522</v>
       </c>
     </row>
     <row r="59" spans="1:8">
@@ -1908,25 +1908,25 @@
         <v>57</v>
       </c>
       <c r="B59">
-        <v>0.4766355140186916</v>
+        <v>0.4880952380952381</v>
       </c>
       <c r="C59">
-        <v>0.4974039460020768</v>
+        <v>0.5059565522074282</v>
       </c>
       <c r="D59">
-        <v>0.5508474576271186</v>
+        <v>0.5104166666666666</v>
       </c>
       <c r="E59">
-        <v>0.4993646759847522</v>
+        <v>0.4919852034525277</v>
       </c>
       <c r="F59">
-        <v>0.5565217391304348</v>
+        <v>0.4891304347826087</v>
       </c>
       <c r="G59">
-        <v>0.5106382978723404</v>
+        <v>0.4788902291917974</v>
       </c>
       <c r="H59">
-        <v>0.502</v>
+        <v>0.532</v>
       </c>
     </row>
     <row r="60" spans="1:8">
@@ -1934,25 +1934,25 @@
         <v>58</v>
       </c>
       <c r="B60">
-        <v>0.4946236559139785</v>
+        <v>0.5308641975308642</v>
       </c>
       <c r="C60">
-        <v>0.4974619289340101</v>
+        <v>0.5072314049586777</v>
       </c>
       <c r="D60">
-        <v>0.4770642201834863</v>
+        <v>0.4823529411764706</v>
       </c>
       <c r="E60">
-        <v>0.4974937343358396</v>
+        <v>0.4944375772558715</v>
       </c>
       <c r="F60">
-        <v>0.6161616161616161</v>
+        <v>0.4767441860465116</v>
       </c>
       <c r="G60">
-        <v>0.5043586550435866</v>
+        <v>0.4785276073619632</v>
       </c>
       <c r="H60">
-        <v>0.506</v>
+        <v>0.516</v>
       </c>
     </row>
     <row r="61" spans="1:8">
@@ -1960,25 +1960,25 @@
         <v>59</v>
       </c>
       <c r="B61">
-        <v>0.4356435643564356</v>
+        <v>0.4680851063829787</v>
       </c>
       <c r="C61">
-        <v>0.4961832061068702</v>
+        <v>0.5032258064516129</v>
       </c>
       <c r="D61">
-        <v>0.4953271028037383</v>
+        <v>0.4646464646464646</v>
       </c>
       <c r="E61">
-        <v>0.5043156596794082</v>
+        <v>0.5006195786864932</v>
       </c>
       <c r="F61">
-        <v>0.5111111111111111</v>
+        <v>0.4285714285714285</v>
       </c>
       <c r="G61">
-        <v>0.5078979343863913</v>
+        <v>0.4765432098765432</v>
       </c>
       <c r="H61">
-        <v>0.504</v>
+        <v>0.512</v>
       </c>
     </row>
     <row r="62" spans="1:8">
@@ -1986,25 +1986,25 @@
         <v>60</v>
       </c>
       <c r="B62">
-        <v>0.42</v>
+        <v>0.4807692307692308</v>
       </c>
       <c r="C62">
-        <v>0.5</v>
+        <v>0.5048641395504864</v>
       </c>
       <c r="D62">
-        <v>0.5098039215686274</v>
+        <v>0.5346534653465347</v>
       </c>
       <c r="E62">
-        <v>0.5037878787878788</v>
+        <v>0.4981366459627329</v>
       </c>
       <c r="F62">
-        <v>0.5365853658536586</v>
+        <v>0.4158415841584158</v>
       </c>
       <c r="G62">
-        <v>0.5215252152521526</v>
+        <v>0.4834355828220859</v>
       </c>
       <c r="H62">
-        <v>0.482</v>
+        <v>0.506</v>
       </c>
     </row>
     <row r="63" spans="1:8">
@@ -2012,25 +2012,25 @@
         <v>61</v>
       </c>
       <c r="B63">
-        <v>0.4845360824742268</v>
+        <v>0.5309734513274337</v>
       </c>
       <c r="C63">
-        <v>0.5004871711594674</v>
+        <v>0.5046666666666667</v>
       </c>
       <c r="D63">
-        <v>0.4642857142857143</v>
+        <v>0.5376344086021505</v>
       </c>
       <c r="E63">
-        <v>0.504424778761062</v>
+        <v>0.4918238993710692</v>
       </c>
       <c r="F63">
-        <v>0.52</v>
+        <v>0.4333333333333333</v>
       </c>
       <c r="G63">
-        <v>0.5135135135135135</v>
+        <v>0.489414694894147</v>
       </c>
       <c r="H63">
-        <v>0.51</v>
+        <v>0.494</v>
       </c>
     </row>
     <row r="64" spans="1:8">
@@ -2038,25 +2038,25 @@
         <v>62</v>
       </c>
       <c r="B64">
-        <v>0.5212765957446809</v>
+        <v>0.5514018691588785</v>
       </c>
       <c r="C64">
-        <v>0.499196399871424</v>
+        <v>0.5024662939822426</v>
       </c>
       <c r="D64">
-        <v>0.4907407407407408</v>
+        <v>0.5043478260869565</v>
       </c>
       <c r="E64">
-        <v>0.5077319587628866</v>
+        <v>0.4918648310387985</v>
       </c>
       <c r="F64">
-        <v>0.51</v>
+        <v>0.5048543689320388</v>
       </c>
       <c r="G64">
-        <v>0.5125944584382871</v>
+        <v>0.4901234567901235</v>
       </c>
       <c r="H64">
-        <v>0.52</v>
+        <v>0.486</v>
       </c>
     </row>
     <row r="65" spans="1:8">
@@ -2064,25 +2064,25 @@
         <v>63</v>
       </c>
       <c r="B65">
-        <v>0.5326086956521739</v>
+        <v>0.5728155339805825</v>
       </c>
       <c r="C65">
-        <v>0.4980988593155893</v>
+        <v>0.5033969589129732</v>
       </c>
       <c r="D65">
-        <v>0.4885496183206107</v>
+        <v>0.5408163265306123</v>
       </c>
       <c r="E65">
-        <v>0.5038265306122449</v>
+        <v>0.489281210592686</v>
       </c>
       <c r="F65">
-        <v>0.4910714285714285</v>
+        <v>0.5161290322580645</v>
       </c>
       <c r="G65">
-        <v>0.5156054931335831</v>
+        <v>0.4888613861386139</v>
       </c>
       <c r="H65">
-        <v>0.514</v>
+        <v>0.482</v>
       </c>
     </row>
     <row r="66" spans="1:8">
@@ -2090,25 +2090,25 @@
         <v>64</v>
       </c>
       <c r="B66">
-        <v>0.5</v>
+        <v>0.5531914893617021</v>
       </c>
       <c r="C66">
-        <v>0.4995316890415236</v>
+        <v>0.5011128775834658</v>
       </c>
       <c r="D66">
-        <v>0.4953271028037383</v>
+        <v>0.4646464646464646</v>
       </c>
       <c r="E66">
-        <v>0.5012787723785166</v>
+        <v>0.491421568627451</v>
       </c>
       <c r="F66">
-        <v>0.5</v>
+        <v>0.5408163265306123</v>
       </c>
       <c r="G66">
-        <v>0.5092936802973977</v>
+        <v>0.489051094890511</v>
       </c>
       <c r="H66">
-        <v>0.52</v>
+        <v>0.484</v>
       </c>
     </row>
     <row r="67" spans="1:8">
@@ -2116,25 +2116,25 @@
         <v>65</v>
       </c>
       <c r="B67">
-        <v>0.5047619047619047</v>
+        <v>0.5229357798165137</v>
       </c>
       <c r="C67">
-        <v>0.4987639060568603</v>
+        <v>0.5039271127866792</v>
       </c>
       <c r="D67">
-        <v>0.4803921568627451</v>
+        <v>0.5180722891566265</v>
       </c>
       <c r="E67">
-        <v>0.4987405541561713</v>
+        <v>0.50125</v>
       </c>
       <c r="F67">
-        <v>0.5047619047619047</v>
+        <v>0.5111111111111111</v>
       </c>
       <c r="G67">
-        <v>0.5106382978723404</v>
+        <v>0.4969097651421508</v>
       </c>
       <c r="H67">
-        <v>0.52</v>
+        <v>0.472</v>
       </c>
     </row>
     <row r="68" spans="1:8">
@@ -2142,25 +2142,25 @@
         <v>66</v>
       </c>
       <c r="B68">
-        <v>0.5</v>
+        <v>0.5339805825242718</v>
       </c>
       <c r="C68">
-        <v>0.4983092529972333</v>
+        <v>0.5038904450669156</v>
       </c>
       <c r="D68">
-        <v>0.5225225225225225</v>
+        <v>0.4380952380952381</v>
       </c>
       <c r="E68">
-        <v>0.4949238578680203</v>
+        <v>0.5055350553505535</v>
       </c>
       <c r="F68">
-        <v>0.5363636363636364</v>
+        <v>0.4646464646464646</v>
       </c>
       <c r="G68">
-        <v>0.5082382762991128</v>
+        <v>0.5043050430504306</v>
       </c>
       <c r="H68">
-        <v>0.528</v>
+        <v>0.476</v>
       </c>
     </row>
     <row r="69" spans="1:8">
@@ -2168,25 +2168,25 @@
         <v>67</v>
       </c>
       <c r="B69">
-        <v>0.5306122448979592</v>
+        <v>0.53</v>
       </c>
       <c r="C69">
-        <v>0.4992398905442384</v>
+        <v>0.5021472392638037</v>
       </c>
       <c r="D69">
-        <v>0.5192307692307693</v>
+        <v>0.5</v>
       </c>
       <c r="E69">
-        <v>0.493573264781491</v>
+        <v>0.5080946450809465</v>
       </c>
       <c r="F69">
-        <v>0.4824561403508772</v>
+        <v>0.3775510204081632</v>
       </c>
       <c r="G69">
-        <v>0.5031928480204342</v>
+        <v>0.5055487053020962</v>
       </c>
       <c r="H69">
-        <v>0.532</v>
+        <v>0.478</v>
       </c>
     </row>
     <row r="70" spans="1:8">
@@ -2194,25 +2194,25 @@
         <v>68</v>
       </c>
       <c r="B70">
-        <v>0.5052631578947369</v>
+        <v>0.5148514851485149</v>
       </c>
       <c r="C70">
-        <v>0.4989505247376312</v>
+        <v>0.5018181818181818</v>
       </c>
       <c r="D70">
-        <v>0.5092592592592593</v>
+        <v>0.5544554455445545</v>
       </c>
       <c r="E70">
-        <v>0.4974683544303797</v>
+        <v>0.5</v>
       </c>
       <c r="F70">
-        <v>0.4905660377358491</v>
+        <v>0.3917525773195876</v>
       </c>
       <c r="G70">
-        <v>0.5120711562897078</v>
+        <v>0.5073891625615764</v>
       </c>
       <c r="H70">
-        <v>0.53</v>
+        <v>0.492</v>
       </c>
     </row>
     <row r="71" spans="1:8">
@@ -2220,25 +2220,25 @@
         <v>69</v>
       </c>
       <c r="B71">
-        <v>0.5268817204301075</v>
+        <v>0.5</v>
       </c>
       <c r="C71">
-        <v>0.5010358094110684</v>
+        <v>0.5022475277195085</v>
       </c>
       <c r="D71">
-        <v>0.4526315789473684</v>
+        <v>0.5566037735849056</v>
       </c>
       <c r="E71">
-        <v>0.4993742177722152</v>
+        <v>0.4987531172069826</v>
       </c>
       <c r="F71">
-        <v>0.4742268041237113</v>
+        <v>0.4431818181818182</v>
       </c>
       <c r="G71">
-        <v>0.5186104218362283</v>
+        <v>0.5036855036855037</v>
       </c>
       <c r="H71">
-        <v>0.524</v>
+        <v>0.496</v>
       </c>
     </row>
     <row r="72" spans="1:8">
@@ -2246,25 +2246,25 @@
         <v>70</v>
       </c>
       <c r="B72">
-        <v>0.5591397849462365</v>
+        <v>0.4655172413793103</v>
       </c>
       <c r="C72">
-        <v>0.4998542698921597</v>
+        <v>0.5052129877867143</v>
       </c>
       <c r="D72">
-        <v>0.4130434782608696</v>
+        <v>0.5</v>
       </c>
       <c r="E72">
-        <v>0.5103785103785103</v>
+        <v>0.4949622166246851</v>
       </c>
       <c r="F72">
-        <v>0.4952380952380953</v>
+        <v>0.5061728395061729</v>
       </c>
       <c r="G72">
-        <v>0.5134146341463415</v>
+        <v>0.501219512195122</v>
       </c>
       <c r="H72">
-        <v>0.53</v>
+        <v>0.494</v>
       </c>
     </row>
     <row r="73" spans="1:8">
@@ -2272,25 +2272,25 @@
         <v>71</v>
       </c>
       <c r="B73">
-        <v>0.5054945054945055</v>
+        <v>0.5135135135135135</v>
       </c>
       <c r="C73">
-        <v>0.4998563631140477</v>
+        <v>0.5065050266114725</v>
       </c>
       <c r="D73">
-        <v>0.4470588235294118</v>
+        <v>0.4411764705882353</v>
       </c>
       <c r="E73">
-        <v>0.5126353790613718</v>
+        <v>0.4993581514762516</v>
       </c>
       <c r="F73">
-        <v>0.4505494505494506</v>
+        <v>0.5402298850574713</v>
       </c>
       <c r="G73">
-        <v>0.5036496350364964</v>
+        <v>0.4956736711990111</v>
       </c>
       <c r="H73">
-        <v>0.536</v>
+        <v>0.498</v>
       </c>
     </row>
     <row r="74" spans="1:8">
@@ -2298,25 +2298,25 @@
         <v>72</v>
       </c>
       <c r="B74">
-        <v>0.5148514851485149</v>
+        <v>0.4862385321100918</v>
       </c>
       <c r="C74">
-        <v>0.5014180374361883</v>
+        <v>0.5052631578947369</v>
       </c>
       <c r="D74">
-        <v>0.4675324675324675</v>
+        <v>0.487603305785124</v>
       </c>
       <c r="E74">
-        <v>0.5107655502392344</v>
+        <v>0.4955300127713921</v>
       </c>
       <c r="F74">
-        <v>0.4835164835164835</v>
+        <v>0.5132743362831859</v>
       </c>
       <c r="G74">
-        <v>0.5</v>
+        <v>0.4943960149439601</v>
       </c>
       <c r="H74">
-        <v>0.54</v>
+        <v>0.49</v>
       </c>
     </row>
     <row r="75" spans="1:8">
@@ -2324,25 +2324,25 @@
         <v>73</v>
       </c>
       <c r="B75">
-        <v>0.4653465346534654</v>
+        <v>0.3853211009174312</v>
       </c>
       <c r="C75">
-        <v>0.5009839752600506</v>
+        <v>0.5053607649956534</v>
       </c>
       <c r="D75">
-        <v>0.3875</v>
+        <v>0.5172413793103449</v>
       </c>
       <c r="E75">
-        <v>0.5138721351025332</v>
+        <v>0.4903225806451613</v>
       </c>
       <c r="F75">
-        <v>0.4155844155844156</v>
+        <v>0.5436893203883495</v>
       </c>
       <c r="G75">
-        <v>0.491504854368932</v>
+        <v>0.4936708860759494</v>
       </c>
       <c r="H75">
-        <v>0.542</v>
+        <v>0.502</v>
       </c>
     </row>
     <row r="76" spans="1:8">
@@ -2350,25 +2350,25 @@
         <v>74</v>
       </c>
       <c r="B76">
-        <v>0.5360824742268041</v>
+        <v>0.4666666666666667</v>
       </c>
       <c r="C76">
-        <v>0.5019564002235886</v>
+        <v>0.5075952995127544</v>
       </c>
       <c r="D76">
-        <v>0.4456521739130435</v>
+        <v>0.5855855855855856</v>
       </c>
       <c r="E76">
-        <v>0.5186567164179104</v>
+        <v>0.4872448979591837</v>
       </c>
       <c r="F76">
-        <v>0.4318181818181818</v>
+        <v>0.5</v>
       </c>
       <c r="G76">
-        <v>0.4871165644171779</v>
+        <v>0.4894409937888199</v>
       </c>
       <c r="H76">
-        <v>0.5679999999999999</v>
+        <v>0.512</v>
       </c>
     </row>
     <row r="77" spans="1:8">
@@ -2376,25 +2376,25 @@
         <v>75</v>
       </c>
       <c r="B77">
-        <v>0.5233644859813084</v>
+        <v>0.4513274336283186</v>
       </c>
       <c r="C77">
-        <v>0.5001380071763731</v>
+        <v>0.505245250921463</v>
       </c>
       <c r="D77">
-        <v>0.4716981132075472</v>
+        <v>0.5862068965517241</v>
       </c>
       <c r="E77">
-        <v>0.5193992490613266</v>
+        <v>0.4875930521091811</v>
       </c>
       <c r="F77">
-        <v>0.4672897196261682</v>
+        <v>0.4886363636363636</v>
       </c>
       <c r="G77">
-        <v>0.4771886559802713</v>
+        <v>0.4939759036144578</v>
       </c>
       <c r="H77">
-        <v>0.57</v>
+        <v>0.52</v>
       </c>
     </row>
     <row r="78" spans="1:8">
@@ -2402,25 +2402,25 @@
         <v>76</v>
       </c>
       <c r="B78">
-        <v>0.5142857142857142</v>
+        <v>0.5299145299145299</v>
       </c>
       <c r="C78">
-        <v>0.5002738225629791</v>
+        <v>0.5068416643395699</v>
       </c>
       <c r="D78">
-        <v>0.5</v>
+        <v>0.5609756097560976</v>
       </c>
       <c r="E78">
-        <v>0.5244667503136763</v>
+        <v>0.4945978391356542</v>
       </c>
       <c r="F78">
-        <v>0.4174757281553398</v>
+        <v>0.4933333333333333</v>
       </c>
       <c r="G78">
-        <v>0.4775</v>
+        <v>0.5</v>
       </c>
       <c r="H78">
-        <v>0.5620000000000001</v>
+        <v>0.524</v>
       </c>
     </row>
     <row r="79" spans="1:8">
@@ -2428,25 +2428,25 @@
         <v>77</v>
       </c>
       <c r="B79">
-        <v>0.4864864864864865</v>
+        <v>0.5</v>
       </c>
       <c r="C79">
-        <v>0.5010834236186349</v>
+        <v>0.5037406483790524</v>
       </c>
       <c r="D79">
-        <v>0.5288461538461539</v>
+        <v>0.5</v>
       </c>
       <c r="E79">
-        <v>0.5143570536828964</v>
+        <v>0.4908424908424908</v>
       </c>
       <c r="F79">
-        <v>0.3796296296296297</v>
+        <v>0.4705882352941176</v>
       </c>
       <c r="G79">
-        <v>0.4793491864831039</v>
+        <v>0.4964028776978417</v>
       </c>
       <c r="H79">
-        <v>0.5600000000000001</v>
+        <v>0.53</v>
       </c>
     </row>
     <row r="80" spans="1:8">
@@ -2454,25 +2454,25 @@
         <v>78</v>
       </c>
       <c r="B80">
-        <v>0.5092592592592593</v>
+        <v>0.4754098360655737</v>
       </c>
       <c r="C80">
-        <v>0.5038926174496644</v>
+        <v>0.5050950151473423</v>
       </c>
       <c r="D80">
-        <v>0.5045045045045045</v>
+        <v>0.5339805825242718</v>
       </c>
       <c r="E80">
-        <v>0.516209476309227</v>
+        <v>0.4975</v>
       </c>
       <c r="F80">
-        <v>0.4485981308411215</v>
+        <v>0.6067415730337079</v>
       </c>
       <c r="G80">
-        <v>0.4732919254658385</v>
+        <v>0.4921402660217654</v>
       </c>
       <c r="H80">
-        <v>0.5620000000000001</v>
+        <v>0.53</v>
       </c>
     </row>
     <row r="81" spans="1:8">
@@ -2480,25 +2480,25 @@
         <v>79</v>
       </c>
       <c r="B81">
-        <v>0.5643564356435643</v>
+        <v>0.4576271186440678</v>
       </c>
       <c r="C81">
-        <v>0.5009301089556205</v>
+        <v>0.5058535257282875</v>
       </c>
       <c r="D81">
-        <v>0.4777777777777778</v>
+        <v>0.5315315315315315</v>
       </c>
       <c r="E81">
-        <v>0.5138190954773869</v>
+        <v>0.4981036662452591</v>
       </c>
       <c r="F81">
-        <v>0.4673913043478261</v>
+        <v>0.4845360824742268</v>
       </c>
       <c r="G81">
-        <v>0.4689054726368159</v>
+        <v>0.4932182490752158</v>
       </c>
       <c r="H81">
-        <v>0.5580000000000001</v>
+        <v>0.516</v>
       </c>
     </row>
     <row r="82" spans="1:8">
@@ -2506,25 +2506,25 @@
         <v>80</v>
       </c>
       <c r="B82">
-        <v>0.5</v>
+        <v>0.4867256637168141</v>
       </c>
       <c r="C82">
-        <v>0.499738082765846</v>
+        <v>0.5064655172413793</v>
       </c>
       <c r="D82">
-        <v>0.5490196078431373</v>
+        <v>0.5333333333333333</v>
       </c>
       <c r="E82">
-        <v>0.5127582017010935</v>
+        <v>0.4884910485933504</v>
       </c>
       <c r="F82">
-        <v>0.5050505050505051</v>
+        <v>0.4666666666666667</v>
       </c>
       <c r="G82">
-        <v>0.4684466019417476</v>
+        <v>0.505</v>
       </c>
       <c r="H82">
-        <v>0.546</v>
+        <v>0.512</v>
       </c>
     </row>
     <row r="83" spans="1:8">
@@ -2532,25 +2532,25 @@
         <v>81</v>
       </c>
       <c r="B83">
-        <v>0.52</v>
+        <v>0.5175438596491229</v>
       </c>
       <c r="C83">
-        <v>0.5001297016861219</v>
+        <v>0.5058823529411764</v>
       </c>
       <c r="D83">
-        <v>0.4691358024691358</v>
+        <v>0.5</v>
       </c>
       <c r="E83">
-        <v>0.5141104294478528</v>
+        <v>0.4948717948717949</v>
       </c>
       <c r="F83">
-        <v>0.4673913043478261</v>
+        <v>0.5480769230769231</v>
       </c>
       <c r="G83">
-        <v>0.475669099756691</v>
+        <v>0.5044472681067345</v>
       </c>
       <c r="H83">
-        <v>0.52</v>
+        <v>0.518</v>
       </c>
     </row>
     <row r="84" spans="1:8">
@@ -2558,25 +2558,25 @@
         <v>82</v>
       </c>
       <c r="B84">
-        <v>0.4711538461538461</v>
+        <v>0.495575221238938</v>
       </c>
       <c r="C84">
-        <v>0.500899511693652</v>
+        <v>0.5056833201163098</v>
       </c>
       <c r="D84">
-        <v>0.5625</v>
+        <v>0.5254237288135594</v>
       </c>
       <c r="E84">
-        <v>0.5204819277108433</v>
+        <v>0.4943253467843632</v>
       </c>
       <c r="F84">
-        <v>0.4382022471910113</v>
+        <v>0.4727272727272727</v>
       </c>
       <c r="G84">
-        <v>0.4721549636803874</v>
+        <v>0.5105853051058531</v>
       </c>
       <c r="H84">
-        <v>0.52</v>
+        <v>0.498</v>
       </c>
     </row>
     <row r="85" spans="1:8">
@@ -2584,25 +2584,25 @@
         <v>83</v>
       </c>
       <c r="B85">
-        <v>0.4339622641509434</v>
+        <v>0.5357142857142857</v>
       </c>
       <c r="C85">
-        <v>0.5043389484430832</v>
+        <v>0.5072008379156847</v>
       </c>
       <c r="D85">
-        <v>0.4943820224719101</v>
+        <v>0.4205607476635514</v>
       </c>
       <c r="E85">
-        <v>0.5160891089108911</v>
+        <v>0.49428208386277</v>
       </c>
       <c r="F85">
-        <v>0.4642857142857143</v>
+        <v>0.5052631578947369</v>
       </c>
       <c r="G85">
-        <v>0.4780487804878049</v>
+        <v>0.5099502487562189</v>
       </c>
       <c r="H85">
-        <v>0.502</v>
+        <v>0.496</v>
       </c>
     </row>
     <row r="86" spans="1:8">
@@ -2610,25 +2610,25 @@
         <v>84</v>
       </c>
       <c r="B86">
-        <v>0.4036697247706422</v>
+        <v>0.4897959183673469</v>
       </c>
       <c r="C86">
-        <v>0.504424778761062</v>
+        <v>0.5065976714100906</v>
       </c>
       <c r="D86">
-        <v>0.4351851851851852</v>
+        <v>0.4423076923076923</v>
       </c>
       <c r="E86">
-        <v>0.5118012422360249</v>
+        <v>0.4974937343358396</v>
       </c>
       <c r="F86">
-        <v>0.5</v>
+        <v>0.4646464646464646</v>
       </c>
       <c r="G86">
-        <v>0.4699386503067485</v>
+        <v>0.5079754601226993</v>
       </c>
       <c r="H86">
-        <v>0.506</v>
+        <v>0.496</v>
       </c>
     </row>
     <row r="87" spans="1:8">
@@ -2636,25 +2636,25 @@
         <v>85</v>
       </c>
       <c r="B87">
-        <v>0.4166666666666667</v>
+        <v>0.5047619047619047</v>
       </c>
       <c r="C87">
-        <v>0.5053817271589487</v>
+        <v>0.5076530612244898</v>
       </c>
       <c r="D87">
-        <v>0.5339805825242718</v>
+        <v>0.4361702127659575</v>
       </c>
       <c r="E87">
-        <v>0.5119196988707654</v>
+        <v>0.4962962962962963</v>
       </c>
       <c r="F87">
-        <v>0.5773195876288659</v>
+        <v>0.4835164835164835</v>
       </c>
       <c r="G87">
-        <v>0.4716748768472906</v>
+        <v>0.511002444987775</v>
       </c>
       <c r="H87">
-        <v>0.494</v>
+        <v>0.488</v>
       </c>
     </row>
     <row r="88" spans="1:8">
@@ -2662,25 +2662,25 @@
         <v>86</v>
       </c>
       <c r="B88">
-        <v>0.4022988505747127</v>
+        <v>0.4601769911504425</v>
       </c>
       <c r="C88">
-        <v>0.5049578582052553</v>
+        <v>0.5084917617237009</v>
       </c>
       <c r="D88">
-        <v>0.5463917525773195</v>
+        <v>0.4842105263157895</v>
       </c>
       <c r="E88">
-        <v>0.4993694829760403</v>
+        <v>0.4969021065675341</v>
       </c>
       <c r="F88">
-        <v>0.5454545454545454</v>
+        <v>0.5060240963855421</v>
       </c>
       <c r="G88">
-        <v>0.4720496894409938</v>
+        <v>0.5030826140567201</v>
       </c>
       <c r="H88">
-        <v>0.502</v>
+        <v>0.508</v>
       </c>
     </row>
     <row r="89" spans="1:8">
@@ -2688,25 +2688,25 @@
         <v>87</v>
       </c>
       <c r="B89">
-        <v>0.3936170212765958</v>
+        <v>0.5128205128205128</v>
       </c>
       <c r="C89">
-        <v>0.5044226044226044</v>
+        <v>0.5101938082053864</v>
       </c>
       <c r="D89">
-        <v>0.5185185185185185</v>
+        <v>0.4070796460176991</v>
       </c>
       <c r="E89">
-        <v>0.4898477157360406</v>
+        <v>0.4962406015037594</v>
       </c>
       <c r="F89">
-        <v>0.5596330275229358</v>
+        <v>0.5252525252525253</v>
       </c>
       <c r="G89">
-        <v>0.486318407960199</v>
+        <v>0.5</v>
       </c>
       <c r="H89">
-        <v>0.486</v>
+        <v>0.498</v>
       </c>
     </row>
     <row r="90" spans="1:8">
@@ -2714,25 +2714,25 @@
         <v>88</v>
       </c>
       <c r="B90">
-        <v>0.4105263157894737</v>
+        <v>0.4916666666666666</v>
       </c>
       <c r="C90">
-        <v>0.5031630170316301</v>
+        <v>0.5066134265036186</v>
       </c>
       <c r="D90">
-        <v>0.5221238938053098</v>
+        <v>0.4653465346534654</v>
       </c>
       <c r="E90">
-        <v>0.4937185929648241</v>
+        <v>0.5025125628140703</v>
       </c>
       <c r="F90">
-        <v>0.59</v>
+        <v>0.5319148936170213</v>
       </c>
       <c r="G90">
-        <v>0.4868913857677903</v>
+        <v>0.491421568627451</v>
       </c>
       <c r="H90">
-        <v>0.486</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="91" spans="1:8">
@@ -2740,25 +2740,25 @@
         <v>89</v>
       </c>
       <c r="B91">
-        <v>0.45</v>
+        <v>0.4907407407407408</v>
       </c>
       <c r="C91">
-        <v>0.5024108003857281</v>
+        <v>0.507185332011893</v>
       </c>
       <c r="D91">
-        <v>0.5268817204301075</v>
+        <v>0.4787234042553192</v>
       </c>
       <c r="E91">
-        <v>0.4881101376720901</v>
+        <v>0.4925742574257426</v>
       </c>
       <c r="F91">
-        <v>0.5294117647058824</v>
+        <v>0.4634146341463415</v>
       </c>
       <c r="G91">
-        <v>0.4963325183374083</v>
+        <v>0.4932844932844933</v>
       </c>
       <c r="H91">
-        <v>0.48</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="92" spans="1:8">
@@ -2766,22 +2766,22 @@
         <v>90</v>
       </c>
       <c r="B92">
-        <v>0.5045871559633027</v>
+        <v>0.462962962962963</v>
       </c>
       <c r="C92">
-        <v>0.5009592326139088</v>
+        <v>0.5077111383108935</v>
       </c>
       <c r="D92">
-        <v>0.59</v>
+        <v>0.4693877551020408</v>
       </c>
       <c r="E92">
-        <v>0.5031133250311333</v>
+        <v>0.5024875621890548</v>
       </c>
       <c r="F92">
-        <v>0.5666666666666667</v>
+        <v>0.5161290322580645</v>
       </c>
       <c r="G92">
-        <v>0.4993880048959609</v>
+        <v>0.5036496350364964</v>
       </c>
       <c r="H92">
         <v>0.5</v>
@@ -2792,25 +2792,25 @@
         <v>91</v>
       </c>
       <c r="B93">
-        <v>0.4745762711864407</v>
+        <v>0.4722222222222222</v>
       </c>
       <c r="C93">
-        <v>0.4977343191032674</v>
+        <v>0.5074119076549211</v>
       </c>
       <c r="D93">
-        <v>0.5740740740740741</v>
+        <v>0.5</v>
       </c>
       <c r="E93">
-        <v>0.5</v>
+        <v>0.5075187969924813</v>
       </c>
       <c r="F93">
-        <v>0.4466019417475728</v>
+        <v>0.4653465346534654</v>
       </c>
       <c r="G93">
-        <v>0.4962779156327544</v>
+        <v>0.504950495049505</v>
       </c>
       <c r="H93">
-        <v>0.498</v>
+        <v>0.496</v>
       </c>
     </row>
     <row r="94" spans="1:8">
@@ -2818,25 +2818,25 @@
         <v>92</v>
       </c>
       <c r="B94">
-        <v>0.4745762711864407</v>
+        <v>0.4821428571428572</v>
       </c>
       <c r="C94">
-        <v>0.4991708126036484</v>
+        <v>0.5067243035542748</v>
       </c>
       <c r="D94">
-        <v>0.5963302752293578</v>
+        <v>0.5566037735849056</v>
       </c>
       <c r="E94">
-        <v>0.504424778761062</v>
+        <v>0.4968632371392723</v>
       </c>
       <c r="F94">
-        <v>0.4571428571428571</v>
+        <v>0.4646464646464646</v>
       </c>
       <c r="G94">
-        <v>0.5024937655860349</v>
+        <v>0.5055624227441285</v>
       </c>
       <c r="H94">
-        <v>0.492</v>
+        <v>0.488</v>
       </c>
     </row>
     <row r="95" spans="1:8">
@@ -2844,25 +2844,25 @@
         <v>93</v>
       </c>
       <c r="B95">
-        <v>0.5188679245283019</v>
+        <v>0.495575221238938</v>
       </c>
       <c r="C95">
-        <v>0.4995294117647059</v>
+        <v>0.5071394574012376</v>
       </c>
       <c r="D95">
-        <v>0.5188679245283019</v>
+        <v>0.53</v>
       </c>
       <c r="E95">
-        <v>0.5139240506329114</v>
+        <v>0.4913366336633663</v>
       </c>
       <c r="F95">
-        <v>0.4148936170212766</v>
+        <v>0.5119047619047619</v>
       </c>
       <c r="G95">
-        <v>0.5012531328320802</v>
+        <v>0.5030599755201959</v>
       </c>
       <c r="H95">
-        <v>0.5</v>
+        <v>0.486</v>
       </c>
     </row>
     <row r="96" spans="1:8">
@@ -2870,25 +2870,25 @@
         <v>94</v>
       </c>
       <c r="B96">
-        <v>0.5315315315315315</v>
+        <v>0.5116279069767442</v>
       </c>
       <c r="C96">
-        <v>0.4991873693986534</v>
+        <v>0.5071815399105251</v>
       </c>
       <c r="D96">
-        <v>0.4741379310344828</v>
+        <v>0.5051546391752577</v>
       </c>
       <c r="E96">
-        <v>0.5275</v>
+        <v>0.4939024390243902</v>
       </c>
       <c r="F96">
-        <v>0.4375</v>
+        <v>0.5157894736842106</v>
       </c>
       <c r="G96">
-        <v>0.4969400244798042</v>
+        <v>0.5005959475566151</v>
       </c>
       <c r="H96">
-        <v>0.516</v>
+        <v>0.492</v>
       </c>
     </row>
     <row r="97" spans="1:8">
@@ -2896,25 +2896,25 @@
         <v>95</v>
       </c>
       <c r="B97">
-        <v>0.5473684210526316</v>
+        <v>0.5384615384615384</v>
       </c>
       <c r="C97">
-        <v>0.4982754656242814</v>
+        <v>0.5057363615078436</v>
       </c>
       <c r="D97">
-        <v>0.5106382978723404</v>
+        <v>0.4523809523809524</v>
       </c>
       <c r="E97">
-        <v>0.5328376703841388</v>
+        <v>0.4981729598051157</v>
       </c>
       <c r="F97">
-        <v>0.3950617283950617</v>
+        <v>0.5411764705882353</v>
       </c>
       <c r="G97">
-        <v>0.4879807692307692</v>
+        <v>0.5012106537530266</v>
       </c>
       <c r="H97">
-        <v>0.514</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="98" spans="1:8">
@@ -2922,25 +2922,25 @@
         <v>96</v>
       </c>
       <c r="B98">
-        <v>0.5612244897959183</v>
+        <v>0.4916666666666666</v>
       </c>
       <c r="C98">
-        <v>0.4974988631195998</v>
+        <v>0.5049803104007412</v>
       </c>
       <c r="D98">
-        <v>0.4767441860465116</v>
+        <v>0.5051546391752577</v>
       </c>
       <c r="E98">
-        <v>0.5286236297198539</v>
+        <v>0.4950859950859951</v>
       </c>
       <c r="F98">
-        <v>0.5189873417721519</v>
+        <v>0.5319148936170213</v>
       </c>
       <c r="G98">
-        <v>0.4910394265232975</v>
+        <v>0.4993894993894994</v>
       </c>
       <c r="H98">
-        <v>0.504</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="99" spans="1:8">
@@ -2948,25 +2948,25 @@
         <v>97</v>
       </c>
       <c r="B99">
-        <v>0.5636363636363636</v>
+        <v>0.5047619047619047</v>
       </c>
       <c r="C99">
-        <v>0.496271186440678</v>
+        <v>0.5061898211829436</v>
       </c>
       <c r="D99">
-        <v>0.5</v>
+        <v>0.4814814814814815</v>
       </c>
       <c r="E99">
-        <v>0.5393120393120393</v>
+        <v>0.4975308641975308</v>
       </c>
       <c r="F99">
-        <v>0.5348837209302325</v>
+        <v>0.5656565656565656</v>
       </c>
       <c r="G99">
-        <v>0.4794685990338164</v>
+        <v>0.5006119951040392</v>
       </c>
       <c r="H99">
-        <v>0.508</v>
+        <v>0.506</v>
       </c>
     </row>
     <row r="100" spans="1:8">
@@ -2974,25 +2974,25 @@
         <v>98</v>
       </c>
       <c r="B100">
-        <v>0.6095238095238096</v>
+        <v>0.5</v>
       </c>
       <c r="C100">
-        <v>0.4960647627614122</v>
+        <v>0.5061447428311333</v>
       </c>
       <c r="D100">
-        <v>0.5181818181818182</v>
+        <v>0.4891304347826087</v>
       </c>
       <c r="E100">
-        <v>0.5386533665835411</v>
+        <v>0.4993646759847522</v>
       </c>
       <c r="F100">
-        <v>0.4301075268817204</v>
+        <v>0.4945054945054945</v>
       </c>
       <c r="G100">
-        <v>0.4761904761904762</v>
+        <v>0.5105590062111801</v>
       </c>
       <c r="H100">
-        <v>0.512</v>
+        <v>0.494</v>
       </c>
     </row>
     <row r="101" spans="1:8">
@@ -3000,25 +3000,25 @@
         <v>99</v>
       </c>
       <c r="B101">
-        <v>0.5871559633027523</v>
+        <v>0.5315315315315315</v>
       </c>
       <c r="C101">
-        <v>0.4962121212121212</v>
+        <v>0.5067934782608695</v>
       </c>
       <c r="D101">
-        <v>0.5370370370370371</v>
+        <v>0.5178571428571429</v>
       </c>
       <c r="E101">
-        <v>0.5372945638432364</v>
+        <v>0.4962025316455696</v>
       </c>
       <c r="F101">
-        <v>0.4747474747474748</v>
+        <v>0.4803921568627451</v>
       </c>
       <c r="G101">
-        <v>0.4870848708487085</v>
+        <v>0.5075</v>
       </c>
       <c r="H101">
-        <v>0.504</v>
+        <v>0.51</v>
       </c>
     </row>
   </sheetData>
